--- a/app/example.xlsx
+++ b/app/example.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,9 +431,19 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>5870</v>
+        <v>6870</v>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -456,6 +465,16 @@
           <t>Дата</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Имя клиента</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Номер телефона</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +488,16 @@
       <c r="C3" s="1" t="n">
         <v>45300.29341435185</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89967377780</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -482,6 +511,16 @@
       <c r="C4" s="1" t="n">
         <v>45300.3025</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89967377780</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -495,6 +534,16 @@
       <c r="C5" s="1" t="n">
         <v>45300.66443287037</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89967377782</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -507,27 +556,42 @@
       </c>
       <c r="C6" s="1" t="n">
         <v>45300.66530092592</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89967377780</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Тор</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45301.29251157407</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89967377780</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/app/example.xlsx
+++ b/app/example.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,168 +424,59 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Общая сумма</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>6870</v>
+          <t>Номер телефона</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Количество чеков</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>Общая сумма покупок</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Установленные пленки</t>
+          <t>89967377780</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Сумма</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Имя клиента</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Номер телефона</t>
-        </is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5080</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Глянец на дисплей, скин кожа 360</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1590</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45300.29341435185</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89967377780</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Матовая мазерфакинг</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45300.3025</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89967377780</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Тор</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>89967377782</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>1790</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45300.66443287037</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Антон</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89967377782</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ukz</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1490</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45300.66530092592</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89967377780</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Тор</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45301.29251157407</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89967377780</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/app/example.xlsx
+++ b/app/example.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Номер телефона</t>
+          <t>Телеграм_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Имя</t>
+          <t>Фамилия Имя</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,44 +439,72 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Общая сумма покупок</t>
+          <t>Общая сумма</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>89967377780</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1000037398</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Batanov Alexandr</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5080</v>
+        <v>9861</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>89967377782</t>
-        </is>
+      <c r="A3" t="n">
+        <v>56789866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>порт Арт</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1790</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2119788927</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Батанов Глеб</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Петров Андрей</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
